--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序列化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RSF 0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务支撑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +237,26 @@
   </si>
   <si>
     <t>QOS流控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务目录服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseOther机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +305,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF007E39"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +333,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5FFDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -326,35 +358,35 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thick">
         <color auto="1"/>
@@ -362,8 +394,8 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -371,44 +403,44 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="dotted">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="dotted">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="dotted">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,11 +448,11 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="dotted">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thick">
         <color auto="1"/>
@@ -428,14 +460,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="dotted">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thick">
         <color auto="1"/>
@@ -443,53 +475,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="dotted">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -500,23 +495,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,34 +550,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,6 +564,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE5FFDD"/>
+      <color rgb="FFB3FF9B"/>
+      <color rgb="FF66FF33"/>
       <color rgb="FF007E39"/>
     </mruColors>
   </colors>
@@ -861,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -872,373 +876,471 @@
     <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="E28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="E31" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>服务支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QOS流控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务目录服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseOther机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>项目配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,51 +260,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务支撑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动发现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QOS流控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务目录服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChooseOther机制</t>
+    <t>兼容 &amp; 集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与 Hasor集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与 Spring集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓(仅协议)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +341,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -346,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -489,13 +525,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,9 +582,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -538,10 +597,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,11 +615,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,15 +933,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.125" customWidth="1"/>
     <col min="4" max="4" width="25.125" bestFit="1" customWidth="1"/>
@@ -881,26 +949,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="11" t="s">
-        <v>56</v>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
@@ -909,8 +977,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -924,8 +992,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +1005,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -952,64 +1020,64 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
-        <v>59</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1023,8 +1091,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1036,8 +1104,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1051,8 +1119,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1066,51 +1134,51 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1124,8 +1192,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1137,14 +1205,14 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1152,10 +1220,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1169,8 +1237,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1182,8 +1250,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1197,8 +1265,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
@@ -1210,8 +1278,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1225,8 +1293,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1238,8 +1306,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1251,23 +1319,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>30</v>
+      <c r="D27" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1281,8 +1349,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
@@ -1294,8 +1362,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1308,39 +1376,67 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A2:A9"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
